--- a/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
+++ b/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fns\workspace-hb\fnsco-big-data\fnsco-war-web\src\main\webapp\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\STS_workspace\fnsco-big-data\fnsco-big-data\fnsco-war-web\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>杭州伊琳健康咨询有限公司</t>
   </si>
@@ -39,9 +39,6 @@
     <t>中国农业银行股份有限公司杭州分行</t>
   </si>
   <si>
-    <t>0.50%+20</t>
-  </si>
-  <si>
     <t>法人手机号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -58,14 +55,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>代理商</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道商户号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>6228480329402870000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -74,66 +63,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>822290058124884</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝0.38% 微信0.38%</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>终端编号扫码3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号刷卡3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注/  机具SN3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号扫码2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号刷卡2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注/  机具SN2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号扫码1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端编号刷卡1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注/  机具SN1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>扫码扣率</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>刷卡扣率-贷记卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷卡扣率-借记卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>开户行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -158,10 +95,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>商户联系人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -195,10 +128,6 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>912664581qq.com</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -243,12 +172,124 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系邮箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13145355@qq.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务联系人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务联系电话</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务联系邮箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户负责人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户负责人电话</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户负责人邮箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行行号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发商户号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发系统中的key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=2016/6/1466077960336.jpg,7=2016/6/1466077955527.jpg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注/  机具SN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借记卡费率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷记卡费率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借记卡固定金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷记卡固定金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借记卡费率封顶值 单位是分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷记卡费率封顶值 单位是分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机具型号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>机具厂家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道商户号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道终端号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部终端号 10000000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +357,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,12 +411,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,9 +477,13 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -720,136 +776,172 @@
     <col min="6" max="6" width="24.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="49.875" style="1" customWidth="1"/>
-    <col min="9" max="14" width="24.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="47.375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="24.625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="24.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="24.625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="47" style="3" customWidth="1"/>
-    <col min="24" max="26" width="24.625" style="3" customWidth="1"/>
-    <col min="27" max="28" width="24.625" style="1" customWidth="1"/>
-    <col min="29" max="34" width="22.625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="9" max="20" width="24.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="47.375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="24.625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="24.625" style="2" customWidth="1"/>
+    <col min="26" max="27" width="33.125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="24.375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="24.625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="47" style="3" customWidth="1"/>
+    <col min="31" max="31" width="18.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="24.625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="36" style="3" customWidth="1"/>
+    <col min="34" max="34" width="24.625" style="3" customWidth="1"/>
+    <col min="35" max="36" width="24.625" style="1" customWidth="1"/>
+    <col min="37" max="45" width="22.625" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="8" t="s">
+      <c r="B2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="15">
         <v>13758697221</v>
@@ -861,78 +953,83 @@
         <v>45126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="15">
+      <c r="J2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
+        <v>15669499932</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="15">
         <v>0</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="13">
-        <v>15669499932</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="15">
+      <c r="W2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="15">
         <v>0</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="15">
-        <v>28805639</v>
-      </c>
-      <c r="AB2" s="15">
+      <c r="AJ2" s="15">
         <v>28805640</v>
       </c>
-      <c r="AC2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="15">
+      <c r="AK2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" s="15">
         <v>28805645</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AM2" s="15">
         <v>28805646</v>
       </c>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -941,6 +1038,9 @@
       <formula1>"押金,销售,换机"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
+++ b/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>杭州伊琳健康咨询有限公司</t>
   </si>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>扫码扣率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +278,38 @@
   </si>
   <si>
     <t>内部终端号 10000000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行支行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>308584000013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行所在省</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行所在市</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -781,36 +809,37 @@
     <col min="22" max="23" width="24.625" style="1" customWidth="1"/>
     <col min="24" max="25" width="24.625" style="2" customWidth="1"/>
     <col min="26" max="27" width="33.125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="24.375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="24.625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="47" style="3" customWidth="1"/>
-    <col min="31" max="31" width="18.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="24.625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="36" style="3" customWidth="1"/>
-    <col min="34" max="34" width="24.625" style="3" customWidth="1"/>
-    <col min="35" max="36" width="24.625" style="1" customWidth="1"/>
-    <col min="37" max="45" width="22.625" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="1"/>
+    <col min="28" max="30" width="19.375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="24.375" style="4" customWidth="1"/>
+    <col min="32" max="32" width="24.625" style="4" customWidth="1"/>
+    <col min="33" max="33" width="47" style="3" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="3" customWidth="1"/>
+    <col min="35" max="35" width="24.625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="36" style="3" customWidth="1"/>
+    <col min="37" max="37" width="24.625" style="3" customWidth="1"/>
+    <col min="38" max="39" width="24.625" style="1" customWidth="1"/>
+    <col min="40" max="48" width="22.625" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
@@ -822,126 +851,135 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="O1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AM1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AN1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AP1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AV1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="9" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="15">
         <v>13758697221</v>
@@ -953,7 +991,7 @@
         <v>45126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="13" t="s">
@@ -969,7 +1007,7 @@
         <v>15669499932</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -984,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>9</v>
@@ -995,41 +1033,52 @@
       <c r="Z2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="18" t="s">
+      <c r="AA2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AL2" s="15">
         <v>0</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AM2" s="15">
         <v>28805640</v>
       </c>
-      <c r="AK2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="15">
+      <c r="AN2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="15">
         <v>28805645</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AP2" s="15">
         <v>28805646</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
+      <c r="AQ2" s="14"/>
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
+++ b/fnsco-war-web/src/main/webapp/template/商户信息导入模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\STS_workspace\fnsco-big-data\fnsco-big-data\fnsco-war-web\src\main\webapp\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="22890" windowHeight="8205"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,130 +12,179 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
-  <si>
-    <t>杭州伊琳健康咨询有限公司</t>
-  </si>
-  <si>
-    <t>伊琳医疗美容</t>
-  </si>
-  <si>
-    <t>吴兰廷</t>
-  </si>
-  <si>
-    <t>浙江省杭州市江干区城星路111号钱江国际时代广场2号楼1803室</t>
-  </si>
-  <si>
-    <t>中国农业银行股份有限公司杭州分行</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+  <si>
+    <t>工商注册名称（协议签约一致）</t>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+  </si>
+  <si>
+    <t>法人身份证号码</t>
+  </si>
+  <si>
+    <t>法人姓名</t>
   </si>
   <si>
     <t>法人手机号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件有效期</t>
   </si>
   <si>
     <t>营业执照有效期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>商户注册地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>商户标签</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6228480329402870000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝0.38% 微信0.38%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户入网注册名称</t>
+  </si>
+  <si>
+    <t>签购单名称</t>
+  </si>
+  <si>
+    <t>商户联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>联系邮箱</t>
+  </si>
+  <si>
+    <t>财务联系人</t>
+  </si>
+  <si>
+    <t>财务联系电话</t>
+  </si>
+  <si>
+    <t>财务联系邮箱</t>
+  </si>
+  <si>
+    <t>商户负责人</t>
+  </si>
+  <si>
+    <t>商户负责人电话</t>
+  </si>
+  <si>
+    <t>商户负责人邮箱</t>
+  </si>
+  <si>
+    <t>装机地址</t>
+  </si>
+  <si>
+    <t>账户类型（对公0/对私1）</t>
+  </si>
+  <si>
+    <t>开户人身份证</t>
+  </si>
+  <si>
+    <t>入账人</t>
+  </si>
+  <si>
+    <t>入账账号</t>
+  </si>
+  <si>
+    <t>开户行支行</t>
+  </si>
+  <si>
+    <t>开户行行号</t>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>开户行所在省</t>
+  </si>
+  <si>
+    <t>开户行所在市</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>浦发商户号</t>
+  </si>
+  <si>
+    <t>浦发系统中的key</t>
+  </si>
+  <si>
+    <t>税务登记号</t>
   </si>
   <si>
     <t>扫码扣率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>入账账号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>入账人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户人身份证</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型（对公0/对私1）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>装机地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户联系人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>签购单名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户入网注册名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件有效期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人姓名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人身份证号码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照注册号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商注册名称（协议签约一致）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>91331111MA27WFXB2L</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>370725195703063111</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴增期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江省杭州市江干区城星路211号钱江国际时代广场2号楼1803室</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件信息</t>
+  </si>
+  <si>
+    <t>备注/  机具SN</t>
+  </si>
+  <si>
+    <t>借记卡费率</t>
+  </si>
+  <si>
+    <t>贷记卡费率</t>
+  </si>
+  <si>
+    <t>借记卡固定金额</t>
+  </si>
+  <si>
+    <t>贷记卡固定金额</t>
+  </si>
+  <si>
+    <t>借记卡费率封顶值 单位是分</t>
+  </si>
+  <si>
+    <t>贷记卡费率封顶值 单位是分</t>
+  </si>
+  <si>
+    <t>机具型号</t>
+  </si>
+  <si>
+    <t>机具厂家</t>
+  </si>
+  <si>
+    <t>通道商户号</t>
+  </si>
+  <si>
+    <t>通道终端号</t>
+  </si>
+  <si>
+    <t>内部终端号 10000000</t>
+  </si>
+  <si>
+    <t>刷卡通道终端号</t>
+  </si>
+  <si>
+    <t>扫码通道终端号</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>结算周期</t>
+  </si>
+  <si>
+    <t>公众号ID</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>一级类目</t>
+  </si>
+  <si>
+    <t>二级类目</t>
   </si>
   <si>
     <r>
@@ -149,9 +193,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>（样例）</t>
     </r>
@@ -160,164 +202,80 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>杭州伊琳健康咨询有限公司</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系邮箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>91331111MA27WFXB2L</t>
+  </si>
+  <si>
+    <t>370725195703063111</t>
+  </si>
+  <si>
+    <t>吴增期</t>
+  </si>
+  <si>
+    <t>浙江省杭州市江干区城星路211号钱江国际时代广场2号楼1803室</t>
+  </si>
+  <si>
+    <t>杭州伊琳健康咨询有限公司</t>
+  </si>
+  <si>
+    <t>伊琳医疗美容</t>
+  </si>
+  <si>
+    <t>吴兰廷</t>
   </si>
   <si>
     <t>13145355@qq.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务联系人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务联系电话</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务联系邮箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户负责人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户负责人电话</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户负责人邮箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行行号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发商户号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发系统中的key</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省杭州市江干区城星路111号钱江国际时代广场2号楼1803室</t>
+  </si>
+  <si>
+    <t>6228480329402870000</t>
+  </si>
+  <si>
+    <t>中国农业银行股份有限公司杭州分行</t>
+  </si>
+  <si>
+    <t>308584000013</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>杭州市</t>
+  </si>
+  <si>
+    <t>支付宝0.38% 微信0.38%</t>
   </si>
   <si>
     <t>1=2016/6/1466077960336.jpg,7=2016/6/1466077955527.jpg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注/  机具SN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>借记卡费率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷记卡费率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>借记卡固定金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷记卡固定金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>借记卡费率封顶值 单位是分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷记卡费率封顶值 单位是分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>机具型号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>机具厂家</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道商户号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道终端号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部终端号 10000000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行支行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>308584000013</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行所在省</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行所在市</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州市</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,36 +287,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="新宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="新宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -366,14 +314,162 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,28 +477,205 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -438,29 +711,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -469,65 +978,114 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="00000000"/>
+      <color rgb="00FFFF00"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -785,201 +1343,228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="BG28" sqref="BG28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
-    <col min="2" max="5" width="24.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="49.875" style="1" customWidth="1"/>
-    <col min="9" max="20" width="24.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="47.375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="24.625" style="1" customWidth="1"/>
-    <col min="24" max="25" width="24.625" style="2" customWidth="1"/>
-    <col min="26" max="27" width="33.125" style="3" customWidth="1"/>
-    <col min="28" max="30" width="19.375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="24.375" style="4" customWidth="1"/>
-    <col min="32" max="32" width="24.625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="47" style="3" customWidth="1"/>
-    <col min="34" max="34" width="18.5" style="3" customWidth="1"/>
-    <col min="35" max="35" width="24.625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="36" style="3" customWidth="1"/>
-    <col min="37" max="37" width="24.625" style="3" customWidth="1"/>
-    <col min="38" max="39" width="24.625" style="1" customWidth="1"/>
-    <col min="40" max="48" width="22.625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29.25" style="3" customWidth="1"/>
+    <col min="2" max="5" width="24.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="49.875" style="3" customWidth="1"/>
+    <col min="9" max="20" width="24.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="47.375" style="3" customWidth="1"/>
+    <col min="22" max="23" width="24.625" style="3" customWidth="1"/>
+    <col min="24" max="25" width="24.625" style="6" customWidth="1"/>
+    <col min="26" max="27" width="33.125" style="7" customWidth="1"/>
+    <col min="28" max="30" width="19.375" style="7" customWidth="1"/>
+    <col min="31" max="31" width="24.375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="24.625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="47" style="7" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="7" customWidth="1"/>
+    <col min="35" max="35" width="24.625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="36" style="7" customWidth="1"/>
+    <col min="37" max="37" width="24.625" style="7" customWidth="1"/>
+    <col min="38" max="39" width="24.625" style="3" customWidth="1"/>
+    <col min="40" max="48" width="22.625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="18.375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="18.875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="10.25" style="3" customWidth="1"/>
+    <col min="52" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:56">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AO1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AR1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AS1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AT1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AU1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AV1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AX1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AY1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="BA1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="BB1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="BC1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="BD1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="8" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:56">
+      <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="15">
         <v>13758697221</v>
@@ -991,72 +1576,72 @@
         <v>45126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="13" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="M2" s="13">
         <v>15669499932</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="N2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="14" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="V2" s="15">
         <v>0</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="18" t="s">
-        <v>11</v>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="AL2" s="15">
         <v>0</v>
@@ -1065,7 +1650,7 @@
         <v>28805640</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="15">
         <v>28805645</v>
@@ -1079,18 +1664,26 @@
       <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
       <formula1>"押金,销售,换机"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId1" display="13145355@qq.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>